--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20940" windowHeight="11955" activeTab="5"/>
+    <workbookView windowHeight="17175" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="incentive" sheetId="5" r:id="rId5"/>
     <sheet name="StoremanUtil" sheetId="6" r:id="rId6"/>
     <sheet name="poslib" sheetId="7" r:id="rId7"/>
+    <sheet name="registerStart_rotate" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>index</t>
   </si>
@@ -155,6 +156,18 @@
   </si>
   <si>
     <t>getEpochId</t>
+  </si>
+  <si>
+    <t>registerStart</t>
+  </si>
+  <si>
+    <t>without preGroupId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok </t>
+  </si>
+  <si>
+    <t>with preGroupId, without new wks</t>
   </si>
 </sst>
 </file>
@@ -162,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,6 +197,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -191,134 +332,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,31 +342,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,151 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,23 +539,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,49 +620,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,142 +638,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,7 +1280,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1458,7 +1471,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1542,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1575,4 +1588,79 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="12.6" customWidth="1"/>
+    <col min="4" max="4" width="41.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175" activeTab="7"/>
+    <workbookView windowHeight="17175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
     <sheet name="stakeAppend" sheetId="2" r:id="rId2"/>
-    <sheet name="delegateIn" sheetId="3" r:id="rId3"/>
-    <sheet name="select" sheetId="4" r:id="rId4"/>
-    <sheet name="incentive" sheetId="5" r:id="rId5"/>
-    <sheet name="StoremanUtil" sheetId="6" r:id="rId6"/>
-    <sheet name="poslib" sheetId="7" r:id="rId7"/>
-    <sheet name="registerStart_rotate" sheetId="8" r:id="rId8"/>
+    <sheet name="stakeOut" sheetId="9" r:id="rId3"/>
+    <sheet name="delegateIn" sheetId="3" r:id="rId4"/>
+    <sheet name="select" sheetId="4" r:id="rId5"/>
+    <sheet name="incentive" sheetId="5" r:id="rId6"/>
+    <sheet name="StoremanUtil" sheetId="6" r:id="rId7"/>
+    <sheet name="poslib" sheetId="7" r:id="rId8"/>
+    <sheet name="registerStart_rotate" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>index</t>
   </si>
@@ -105,6 +106,15 @@
   </si>
   <si>
     <t>append 10</t>
+  </si>
+  <si>
+    <t>before select, checkCanStakeOut return false</t>
+  </si>
+  <si>
+    <t>only sender can stake out</t>
+  </si>
+  <si>
+    <t>before select, StakeOut will fail</t>
   </si>
   <si>
     <t>delegateIn 10000</t>
@@ -1109,7 +1119,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1222,7 +1232,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A1" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1277,10 +1287,76 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="42.7" customWidth="1"/>
+    <col min="3" max="3" width="17.9" customWidth="1"/>
+    <col min="4" max="4" width="50.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1310,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1321,10 +1397,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -1372,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1383,18 +1459,18 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1402,10 +1478,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
@@ -1449,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1466,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -1500,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1511,7 +1587,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1519,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1527,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
@@ -1570,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1581,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1590,12 +1666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1625,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1639,10 +1715,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1650,13 +1726,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175" activeTab="2"/>
+    <workbookView windowHeight="17175" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="StoremanUtil" sheetId="6" r:id="rId7"/>
     <sheet name="poslib" sheetId="7" r:id="rId8"/>
     <sheet name="registerStart_rotate" sheetId="8" r:id="rId9"/>
+    <sheet name="deposit" sheetId="10" r:id="rId10"/>
+    <sheet name="global" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>index</t>
   </si>
@@ -178,6 +180,21 @@
   </si>
   <si>
     <t>with preGroupId, without new wks</t>
+  </si>
+  <si>
+    <t>add a value</t>
+  </si>
+  <si>
+    <t>add a value again</t>
+  </si>
+  <si>
+    <t>add a value with another ID</t>
+  </si>
+  <si>
+    <t>add a value with the same ID</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1243,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="40.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.2" customWidth="1"/>
+    <col min="3" max="3" width="14.1" customWidth="1"/>
+    <col min="4" max="4" width="40.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1289,7 +1446,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +1513,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1672,7 +1829,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175" activeTab="10"/>
+    <workbookView windowWidth="20940" windowHeight="11475" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>index</t>
   </si>
@@ -195,6 +195,27 @@
   </si>
   <si>
     <t>clean</t>
+  </si>
+  <si>
+    <t>contribute</t>
+  </si>
+  <si>
+    <t>getGlobalIncentive</t>
+  </si>
+  <si>
+    <t>getStoremanConf</t>
+  </si>
+  <si>
+    <t>ChainTypeCo</t>
+  </si>
+  <si>
+    <t>smgTransfer</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>getThresholdByGrpId</t>
   </si>
 </sst>
 </file>
@@ -202,15 +223,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,7 +252,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,30 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,39 +373,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,51 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,13 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,133 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,8 +593,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,26 +644,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +672,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,189 +687,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1336,15 +1366,15 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="14.2" customWidth="1"/>
+    <col min="2" max="2" width="31.9" customWidth="1"/>
     <col min="3" max="3" width="14.1" customWidth="1"/>
     <col min="4" max="4" width="40.4" customWidth="1"/>
   </cols>
@@ -1363,18 +1393,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20940" windowHeight="11475" activeTab="10"/>
+    <workbookView windowHeight="17175" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="registerStart_rotate" sheetId="8" r:id="rId9"/>
     <sheet name="deposit" sheetId="10" r:id="rId10"/>
     <sheet name="global" sheetId="11" r:id="rId11"/>
+    <sheet name="upgrade" sheetId="12" r:id="rId12"/>
+    <sheet name="partIn" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
   <si>
     <t>index</t>
   </si>
@@ -216,6 +218,54 @@
   </si>
   <si>
     <t>getThresholdByGrpId</t>
+  </si>
+  <si>
+    <t>upgradeTo  address(0x00)</t>
+  </si>
+  <si>
+    <t>should failed. "Cannot upgrade to invalid address"</t>
+  </si>
+  <si>
+    <t>should succeed.</t>
+  </si>
+  <si>
+    <t>upgrade to a existed address</t>
+  </si>
+  <si>
+    <t>should failed. "Cannot upgrade to the same implementation"</t>
+  </si>
+  <si>
+    <t>staker doesn't exist</t>
+  </si>
+  <si>
+    <t>should failed. "Candidate doesn't exist"</t>
+  </si>
+  <si>
+    <t>normal partin</t>
+  </si>
+  <si>
+    <t>max 5 partners.</t>
+  </si>
+  <si>
+    <t>"Too many partners"</t>
+  </si>
+  <si>
+    <t>partout when selecting</t>
+  </si>
+  <si>
+    <t>selecting</t>
+  </si>
+  <si>
+    <t>partout "Candidate doesn't exist"</t>
+  </si>
+  <si>
+    <t>"Candidate doesn't exist"</t>
+  </si>
+  <si>
+    <t>partout: partner does not exist</t>
+  </si>
+  <si>
+    <t>"not exist"</t>
   </si>
 </sst>
 </file>
@@ -223,9 +273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -258,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -282,7 +339,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -290,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,29 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,15 +378,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,14 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -371,17 +430,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,31 +452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,145 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +644,71 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -614,51 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -667,164 +737,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1442,6 +1492,196 @@
       </c>
       <c r="B7" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="15.8" customWidth="1"/>
+    <col min="4" max="4" width="50.8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="33.4" customWidth="1"/>
+    <col min="3" max="3" width="39.8" customWidth="1"/>
+    <col min="4" max="4" width="69.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1820,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175" activeTab="12"/>
+    <workbookView windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
   <si>
     <t>index</t>
   </si>
@@ -103,6 +103,18 @@
     <t>it should be the fourth one</t>
   </si>
   <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>stakeIn a not existed group</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>stakeIn after register duration</t>
+  </si>
+  <si>
     <t>append 10000</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
   </si>
   <si>
     <t>with preGroupId, without new wks</t>
+  </si>
+  <si>
+    <t>storemanGroupUnregister</t>
   </si>
   <si>
     <t>add a value</t>
@@ -1213,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1315,6 +1330,22 @@
       </c>
       <c r="D9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1357,21 +1388,21 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1379,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1390,10 +1421,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1401,10 +1432,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1448,18 +1479,18 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1467,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1475,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1483,15 +1514,15 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1536,27 +1567,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1564,13 +1595,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1614,27 +1645,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1642,13 +1673,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1656,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1667,21 +1698,21 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1733,10 +1764,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1783,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1791,10 +1822,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1802,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1850,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1858,13 +1889,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1912,29 +1943,29 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1942,10 +1973,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1989,12 +2020,12 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2040,18 +2071,18 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2059,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2067,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2110,18 +2141,18 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2133,15 +2164,15 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="34.7" customWidth="1"/>
     <col min="3" max="3" width="12.6" customWidth="1"/>
     <col min="4" max="4" width="41.1" customWidth="1"/>
   </cols>
@@ -2165,38 +2196,43 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/storeman.xlsx
+++ b/docs/storeman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175"/>
+    <workbookView windowHeight="17175" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stakeIn" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="global" sheetId="11" r:id="rId11"/>
     <sheet name="upgrade" sheetId="12" r:id="rId12"/>
     <sheet name="partIn" sheetId="13" r:id="rId13"/>
+    <sheet name="registerStart" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>index</t>
   </si>
@@ -163,6 +164,12 @@
     <t>the node should be white, T1, T3, T2. total could should be 4.</t>
   </si>
   <si>
+    <t>not exist group</t>
+  </si>
+  <si>
+    <t>before select time.</t>
+  </si>
+  <si>
     <t>group daily incentive</t>
   </si>
   <si>
@@ -233,6 +240,21 @@
   </si>
   <si>
     <t>getThresholdByGrpId</t>
+  </si>
+  <si>
+    <t>setGpk</t>
+  </si>
+  <si>
+    <t>recordSmSlash</t>
+  </si>
+  <si>
+    <t>updateStoremanConf</t>
+  </si>
+  <si>
+    <t>setDependence</t>
+  </si>
+  <si>
+    <t>check invalid address</t>
   </si>
   <si>
     <t>upgradeTo  address(0x00)</t>
@@ -1230,7 +1252,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1388,10 +1410,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1399,10 +1421,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1410,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1421,10 +1443,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1432,10 +1454,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1447,13 +1469,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31.9" customWidth="1"/>
     <col min="3" max="3" width="14.1" customWidth="1"/>
@@ -1479,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1490,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1498,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1506,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1514,15 +1536,43 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1617,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1581,13 +1631,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1595,13 +1645,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1645,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1659,13 +1709,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1673,13 +1723,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1687,10 +1737,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1698,24 +1748,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1907,13 +1973,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.9" customWidth="1"/>
     <col min="2" max="2" width="23.4" customWidth="1"/>
@@ -1977,6 +2043,16 @@
       </c>
       <c r="D5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2071,10 +2147,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2082,7 +2158,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2090,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2098,7 +2174,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2141,10 +2217,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2152,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2196,13 +2272,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2213,7 +2289,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2221,18 +2297,18 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
